--- a/Artéfacts/Artéfacts Sprint 4/Calendrier Sprint 4.xlsx
+++ b/Artéfacts/Artéfacts Sprint 4/Calendrier Sprint 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E7A1FB-2135-4017-A97E-616D768D861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A25121-25A5-4A07-B37D-2CC82212CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>LUNDI</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Test :</t>
+  </si>
+  <si>
+    <t>Tâche terminé le 27/02/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 04/03/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 05/03/2024</t>
+  </si>
+  <si>
+    <t>Suppression d’articles scientifiques non conforme dans notre Corpus</t>
   </si>
 </sst>
 </file>
@@ -234,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -250,8 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,13 +610,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -621,10 +631,10 @@
       <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="5" t="s">
@@ -633,67 +643,67 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <f ca="1">TODAY()</f>
+        <f ca="1">TODAY()-8</f>
         <v>45348</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">TODAY()+1</f>
+        <f ca="1">B2+1</f>
         <v>45349</v>
       </c>
       <c r="D2" s="1">
-        <f ca="1">TODAY()+2</f>
+        <f t="shared" ref="D2:Q2" ca="1" si="0">C2+1</f>
         <v>45350</v>
       </c>
       <c r="E2" s="1">
-        <f ca="1">TODAY()+3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45351</v>
       </c>
       <c r="F2" s="1">
-        <f ca="1">TODAY()+4</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45352</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">TODAY()+5</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45353</v>
       </c>
       <c r="H2" s="1">
-        <f ca="1">TODAY()+6</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45354</v>
       </c>
       <c r="I2" s="1">
-        <f ca="1">TODAY()+7</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45355</v>
       </c>
       <c r="J2" s="1">
-        <f ca="1">TODAY()+8</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45356</v>
       </c>
       <c r="K2" s="1">
-        <f ca="1">TODAY()+9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45357</v>
       </c>
       <c r="L2" s="1">
-        <f ca="1">TODAY()+10</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45358</v>
       </c>
       <c r="M2" s="1">
-        <f ca="1">TODAY()+11</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45359</v>
       </c>
       <c r="N2" s="1">
-        <f ca="1">TODAY()+12</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45360</v>
       </c>
       <c r="O2" s="1">
-        <f ca="1">TODAY()+13</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45361</v>
       </c>
       <c r="P2" s="1">
-        <f ca="1">TODAY()+14</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45362</v>
       </c>
       <c r="Q2" s="1">
-        <f ca="1">TODAY()+15</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45363</v>
       </c>
     </row>
@@ -705,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -757,8 +767,8 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" s="12">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -775,11 +785,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="I5" s="8">
+        <v>2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -812,23 +822,23 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:H7" si="0">B7+C4-C5</f>
+        <f t="shared" ref="C7:G7" si="1">B7+C4-C5</f>
         <v>13</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H7">
@@ -837,39 +847,39 @@
       </c>
       <c r="I7">
         <f>H7+I4-I5</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <f>I7+J4-J5</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K7">
         <f>J7+K4-K5</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="J7:Q7" si="1">K7+L4-L5</f>
-        <v>13</v>
+        <f t="shared" ref="L7:Q7" si="2">K7+L4-L5</f>
+        <v>9</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -898,19 +908,19 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -928,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30D50F-0BD7-4D6D-98EF-6C8A8DFFE157}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,7 +964,7 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -962,7 +972,7 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -970,7 +980,7 @@
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
@@ -978,7 +988,7 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -986,7 +996,7 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
@@ -994,7 +1004,7 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1002,92 +1012,88 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+      <c r="B13">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="14"/>
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="14">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="14">
+        <v>15</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="14">
+        <v>16</v>
+      </c>
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
-        <f>B4+B5+B6+B7+B8+B9+B10+B13+B16+B19+B20+B21+B22</f>
-        <v>13</v>
+      <c r="B25">
+        <f>B4+B5+B6+B7+B8+B9+B10+B13+B16+B17+B20+B21+B22+B23</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Artéfacts/Artéfacts Sprint 4/Calendrier Sprint 4.xlsx
+++ b/Artéfacts/Artéfacts Sprint 4/Calendrier Sprint 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A25121-25A5-4A07-B37D-2CC82212CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25326984-A2B9-4210-9F4B-748321FDC012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>LUNDI</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Rendu et artéfacts :</t>
   </si>
   <si>
-    <t>Tâches terminé le 2./02/2024</t>
-  </si>
-  <si>
     <t>Modifier la forme de sortie du fichier au format XML</t>
   </si>
   <si>
@@ -154,6 +151,12 @@
   </si>
   <si>
     <t>Suppression d’articles scientifiques non conforme dans notre Corpus</t>
+  </si>
+  <si>
+    <t>Tâche terminé le 06/03/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 09/03/2024</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -246,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -262,6 +271,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,67 +654,67 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
-        <f ca="1">TODAY()-8</f>
+        <f>DATE(2024,2,26)</f>
         <v>45348</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">B2+1</f>
+        <f>B2+1</f>
         <v>45349</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:Q2" ca="1" si="0">C2+1</f>
+        <f t="shared" ref="D2:Q2" si="0">C2+1</f>
         <v>45350</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45351</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45352</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45353</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45354</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45355</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45356</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45357</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45358</v>
       </c>
       <c r="M2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45359</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45360</v>
       </c>
       <c r="O2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45361</v>
       </c>
       <c r="P2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45362</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>45363</v>
       </c>
     </row>
@@ -791,8 +802,8 @@
       <c r="J5" s="9">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>0</v>
+      <c r="K5" s="11">
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -800,8 +811,8 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
+      <c r="N5" s="14">
+        <v>4</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -855,32 +866,35 @@
       </c>
       <c r="K7">
         <f>J7+K4-K5</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:Q7" si="2">K7+L4-L5</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -898,6 +912,7 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -908,25 +923,31 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +962,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,12 +978,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -970,7 +991,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -978,31 +999,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
@@ -1010,22 +1031,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="B10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1036,7 +1057,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -1044,7 +1065,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
@@ -1073,7 +1094,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>

--- a/Artéfacts/Artéfacts Sprint 4/Calendrier Sprint 4.xlsx
+++ b/Artéfacts/Artéfacts Sprint 4/Calendrier Sprint 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25326984-A2B9-4210-9F4B-748321FDC012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EF95B3-6955-4C30-81A1-D04DBAB7F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>LUNDI</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Travail en équipe</t>
   </si>
   <si>
-    <t>Rendu du Sprint</t>
-  </si>
-  <si>
     <t>Ajout de tâches</t>
   </si>
   <si>
@@ -157,6 +154,12 @@
   </si>
   <si>
     <t>Tâches terminé le 09/03/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 11/03/2024</t>
+  </si>
+  <si>
+    <t>(Programme à rendre dans 1 ou 2 semaines)</t>
   </si>
 </sst>
 </file>
@@ -196,18 +199,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -242,6 +233,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -258,21 +261,21 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,12 +604,12 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -645,10 +648,10 @@
       <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -720,7 +723,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -773,12 +776,12 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5">
@@ -796,13 +799,13 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <v>2</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <v>1</v>
       </c>
       <c r="L5">
@@ -811,14 +814,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="10">
         <v>4</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>0</v>
+      <c r="P5" s="11">
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -826,7 +829,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <f>B4-B5</f>
@@ -886,67 +889,69 @@
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="9"/>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -959,162 +964,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30D50F-0BD7-4D6D-98EF-6C8A8DFFE157}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="14">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="14">
+        <v>24</v>
+      </c>
+      <c r="B7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="14">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="9">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="11">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="14">
+        <v>28</v>
+      </c>
+      <c r="B13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>20</v>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B25">
         <f>B4+B5+B6+B7+B8+B9+B10+B13+B16+B17+B20+B21+B22+B23</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Artéfacts/Artéfacts Sprint 4/Calendrier Sprint 4.xlsx
+++ b/Artéfacts/Artéfacts Sprint 4/Calendrier Sprint 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EF95B3-6955-4C30-81A1-D04DBAB7F9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89219EB3-698A-4916-9E3C-16B1CCE426B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Rendre le programme sur le Moodle</t>
   </si>
   <si>
-    <t>Faire le tableau Excel et le détails des tâches du Sprint</t>
-  </si>
-  <si>
     <t>Faire un rapport de fin de Sprint</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>(Programme à rendre dans 1 ou 2 semaines)</t>
+  </si>
+  <si>
+    <t>Faire le tableau Excel et le détail des tâches du Sprint</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -275,7 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -916,43 +915,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-    </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -966,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30D50F-0BD7-4D6D-98EF-6C8A8DFFE157}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,17 +975,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -997,7 +993,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1005,7 +1001,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
@@ -1013,7 +1009,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
@@ -1021,7 +1017,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="10">
         <v>1</v>
@@ -1029,7 +1025,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1037,7 +1033,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -1045,12 +1041,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -1058,12 +1054,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -1071,7 +1067,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
@@ -1079,7 +1075,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1090,12 +1086,12 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -1103,7 +1099,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -1111,7 +1107,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
@@ -1119,7 +1115,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <f>B4+B5+B6+B7+B8+B9+B10+B13+B16+B17+B20+B21+B22+B23</f>
